--- a/src/test/resources/testData/data.xlsx
+++ b/src/test/resources/testData/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/082cc92928107f57/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\subas\Rest-Assure-Hackathon\Rest_Assure_Hackathon\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B430DC37-2FEB-4084-A667-C4FD423A1563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D579CAD-F79B-4759-99F3-2A749039AC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" activeTab="4" xr2:uid="{ED680E8E-9DF5-4341-B916-172AB2D6F3BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ED680E8E-9DF5-4341-B916-172AB2D6F3BE}"/>
   </bookViews>
   <sheets>
     <sheet name="program" sheetId="1" r:id="rId1"/>
@@ -24,25 +24,179 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>batch</t>
+  </si>
+  <si>
+    <t>programDescription</t>
+  </si>
+  <si>
+    <t>programName</t>
+  </si>
+  <si>
+    <t>programStatus</t>
+  </si>
+  <si>
+    <t>batchDescription</t>
+  </si>
+  <si>
+    <t>batchName</t>
+  </si>
+  <si>
+    <t>batchNoOfClasses</t>
+  </si>
+  <si>
+    <t>batchStatus</t>
+  </si>
+  <si>
+    <t>userComments</t>
+  </si>
+  <si>
+    <t>userEduPg</t>
+  </si>
+  <si>
+    <t>userEduUg</t>
+  </si>
+  <si>
+    <t>userFirstName</t>
+  </si>
+  <si>
+    <t>userLastName</t>
+  </si>
+  <si>
+    <t>userLinkedinUrl</t>
+  </si>
+  <si>
+    <t>userLocation</t>
+  </si>
+  <si>
+    <t>userMiddleName</t>
+  </si>
+  <si>
+    <t>userPhoneNumber</t>
+  </si>
+  <si>
+    <t>userVisaStatus</t>
+  </si>
+  <si>
+    <t>roleIdR01</t>
+  </si>
+  <si>
+    <t>roleIdR02</t>
+  </si>
+  <si>
+    <t>roleIdR03</t>
+  </si>
+  <si>
+    <t>userRoleStatusActive</t>
+  </si>
+  <si>
+    <t>userRoleStatusInActive</t>
+  </si>
+  <si>
+    <t>assignmentDescription</t>
+  </si>
+  <si>
+    <t>assignmentName</t>
+  </si>
+  <si>
+    <t>Assignmentcomments</t>
+  </si>
+  <si>
+    <t>subDesc</t>
+  </si>
+  <si>
+    <t>subComments</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>SDET</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>TestAutomation</t>
+  </si>
+  <si>
+    <t>NumpyNinja</t>
+  </si>
+  <si>
+    <t>user joined</t>
+  </si>
+  <si>
+    <t>Msc</t>
+  </si>
+  <si>
+    <t>Bsc</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>johnAlex</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>H4Ead</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t>R03</t>
+  </si>
+  <si>
+    <t>InActive</t>
+  </si>
+  <si>
+    <t>ApiHackathon</t>
+  </si>
+  <si>
+    <t>RestAssure</t>
+  </si>
+  <si>
+    <t>api automation</t>
+  </si>
+  <si>
+    <t>Submitted</t>
+  </si>
+  <si>
+    <t>Api Request</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Offline</t>
+  </si>
+  <si>
+    <t>JUL23-RestingNinjas-SDET-001</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>JUL23-RestingNinjas-SDET-002</t>
   </si>
 </sst>
 </file>
@@ -394,12 +548,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F625037E-7CF8-4F28-AD25-8CE22BAB8A37}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -424,12 +638,196 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1242D35C-F39C-4395-A270-F1198CBFCCBD}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AA6" sqref="AA6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="16" max="16" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2">
+        <v>1231231234</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -450,7 +848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C02A08-20A8-40A2-A112-CA41F852033D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/src/test/resources/testData/data.xlsx
+++ b/src/test/resources/testData/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\subas\Rest-Assure-Hackathon\Rest_Assure_Hackathon\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D579CAD-F79B-4759-99F3-2A749039AC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77898E1-B663-458B-9140-B570EDADC5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ED680E8E-9DF5-4341-B916-172AB2D6F3BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{ED680E8E-9DF5-4341-B916-172AB2D6F3BE}"/>
   </bookViews>
   <sheets>
     <sheet name="program" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>batch</t>
   </si>
@@ -127,9 +127,6 @@
     <t>TestAutomation</t>
   </si>
   <si>
-    <t>NumpyNinja</t>
-  </si>
-  <si>
     <t>user joined</t>
   </si>
   <si>
@@ -197,6 +194,15 @@
   </si>
   <si>
     <t>JUL23-RestingNinjas-SDET-002</t>
+  </si>
+  <si>
+    <t>invalidprogramID</t>
+  </si>
+  <si>
+    <t>invalidprogramName</t>
+  </si>
+  <si>
+    <t>JUL23-RestingNinjas-SDET-</t>
   </si>
 </sst>
 </file>
@@ -548,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F625037E-7CF8-4F28-AD25-8CE22BAB8A37}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,9 +565,11 @@
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="29.77734375" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="28.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -571,43 +579,55 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>10708</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
         <v>51</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>54</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -638,16 +658,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1242D35C-F39C-4395-A270-F1198CBFCCBD}">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" customWidth="1"/>
     <col min="4" max="4" width="14.77734375" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" customWidth="1"/>
@@ -659,9 +679,12 @@
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="11.109375" customWidth="1"/>
     <col min="16" max="16" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.44140625" customWidth="1"/>
+    <col min="28" max="28" width="21" customWidth="1"/>
+    <col min="29" max="29" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -743,13 +766,19 @@
       <c r="AA1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
@@ -767,68 +796,105 @@
         <v>30</v>
       </c>
       <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>35</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>36</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>37</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>38</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>39</v>
-      </c>
-      <c r="O2" t="s">
-        <v>40</v>
       </c>
       <c r="P2">
         <v>1231231234</v>
       </c>
       <c r="Q2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" t="s">
         <v>41</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>42</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>43</v>
-      </c>
-      <c r="T2" t="s">
-        <v>44</v>
       </c>
       <c r="U2" t="s">
         <v>30</v>
       </c>
       <c r="V2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" t="s">
         <v>45</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>46</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>47</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2">
+        <v>10708</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>50</v>
       </c>
-      <c r="AA2" t="s">
-        <v>49</v>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/testData/data.xlsx
+++ b/src/test/resources/testData/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\subas\Rest-Assure-Hackathon\Rest_Assure_Hackathon\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77898E1-B663-458B-9140-B570EDADC5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AA6AA4-2CB8-4828-BBD8-439DFC5C687C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{ED680E8E-9DF5-4341-B916-172AB2D6F3BE}"/>
+    <workbookView xWindow="-8892" yWindow="2280" windowWidth="31692" windowHeight="9480" activeTab="2" xr2:uid="{ED680E8E-9DF5-4341-B916-172AB2D6F3BE}"/>
   </bookViews>
   <sheets>
     <sheet name="program" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
   <si>
     <t>batch</t>
   </si>
@@ -151,9 +151,6 @@
     <t>Max</t>
   </si>
   <si>
-    <t>H4Ead</t>
-  </si>
-  <si>
     <t>R01</t>
   </si>
   <si>
@@ -203,6 +200,42 @@
   </si>
   <si>
     <t>JUL23-RestingNinjas-SDET-</t>
+  </si>
+  <si>
+    <t>TimeEST</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>H4-EAD</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>userRoleStatusModified</t>
+  </si>
+  <si>
+    <t>H1B</t>
+  </si>
+  <si>
+    <t>usertimezonemodified</t>
+  </si>
+  <si>
+    <t>uservisastatusmodified</t>
+  </si>
+  <si>
+    <t>IST</t>
+  </si>
+  <si>
+    <t>activeProgra</t>
+  </si>
+  <si>
+    <t>UserRoleProgramBatchStatus</t>
   </si>
 </sst>
 </file>
@@ -580,18 +613,18 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
         <v>55</v>
-      </c>
-      <c r="E1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
@@ -600,34 +633,34 @@
         <v>10708</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
         <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
         <v>53</v>
-      </c>
-      <c r="B5" t="s">
-        <v>54</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -658,10 +691,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1242D35C-F39C-4395-A270-F1198CBFCCBD}">
-  <dimension ref="A1:AC5"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,13 +711,19 @@
     <col min="10" max="10" width="13.109375" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="16" max="16" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.44140625" customWidth="1"/>
-    <col min="28" max="28" width="21" customWidth="1"/>
-    <col min="29" max="29" width="21.6640625" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.77734375" customWidth="1"/>
+    <col min="29" max="29" width="12.44140625" customWidth="1"/>
+    <col min="30" max="30" width="21" customWidth="1"/>
+    <col min="31" max="31" width="21.6640625" customWidth="1"/>
+    <col min="32" max="32" width="28.21875" customWidth="1"/>
+    <col min="33" max="33" width="12.21875" customWidth="1"/>
+    <col min="34" max="34" width="11.109375" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -728,57 +767,78 @@
         <v>14</v>
       </c>
       <c r="O1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
-        <v>56</v>
+      <c r="AF1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
@@ -817,76 +877,94 @@
         <v>38</v>
       </c>
       <c r="O2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" t="s">
         <v>39</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1231231234</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" t="s">
         <v>40</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>41</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>42</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" t="s">
+        <v>58</v>
+      </c>
+      <c r="X2" t="s">
         <v>43</v>
       </c>
-      <c r="U2" t="s">
+      <c r="Y2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD2">
+        <v>10708</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI2" t="s">
         <v>30</v>
       </c>
-      <c r="V2" t="s">
-        <v>44</v>
-      </c>
-      <c r="W2" t="s">
-        <v>45</v>
-      </c>
-      <c r="X2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z2" t="s">
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>49</v>
       </c>
-      <c r="AA2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB2">
-        <v>10708</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
